--- a/Assets/StreamingAssets/character_datas.xlsx
+++ b/Assets/StreamingAssets/character_datas.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,11 +88,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪御魂10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪御魂11</t>
+    <t>椒图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食发鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖刀姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打火机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二口女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莹草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青行灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂十二口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂十觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂十莹草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂十椒图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂十青行灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂十酒吞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂十大天狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂十大蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八百</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源博雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -489,10 +577,11 @@
     <col min="6" max="7" width="14.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="13.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,8 +609,11 @@
       <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -549,8 +641,11 @@
       <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -570,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -578,8 +673,11 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -607,8 +705,11 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -628,41 +729,431 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2233</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2233</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2233</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2233</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2233</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2233</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2233</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2233</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2233</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2233</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1014</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1991</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3126</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13293</v>
+      </c>
+      <c r="F17" s="1">
+        <v>515</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1992</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3126</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13293</v>
+      </c>
+      <c r="F18" s="1">
+        <v>515</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1993</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3126</v>
+      </c>
+      <c r="E19" s="1">
+        <v>13293</v>
+      </c>
+      <c r="F19" s="1">
+        <v>515</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1994</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3126</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13293</v>
+      </c>
+      <c r="F20" s="1">
+        <v>515</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
         <v>2001</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1002</v>
-      </c>
-      <c r="D6" s="1">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
         <v>2002</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1003</v>
-      </c>
-      <c r="D7" s="1">
-        <v>111</v>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>500</v>
+      </c>
+      <c r="G28" s="1">
+        <v>60</v>
+      </c>
+      <c r="H28" s="1">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1">
+        <v>150</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
